--- a/test-data/footer-data.xlsx
+++ b/test-data/footer-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popkhadzeg/eclipse-workspace/cgov-digital-platform-qa/test-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mashkinaea/IdeaProjects/cgov-digital-platform-qa/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91EF5D8-73BD-054E-A51E-E9B01F9718BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1419A8F2-535A-7145-835A-1AD79D853D4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26760" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>path</t>
   </si>
@@ -66,22 +66,16 @@
     <t>espanol/cancer/sobrellevar/sentimientos/hoja-informativa-estres</t>
   </si>
   <si>
-    <t>about-cancer/coping/feelings/relaxation/hpv-vaccine-presidents-cancer-panel-improving-uptake</t>
-  </si>
-  <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>about-cancer/coping/feelings/relaxation/vitamin-d-supplement-cancer-prevention</t>
-  </si>
-  <si>
-    <t>Blog Page</t>
-  </si>
-  <si>
     <t>espanol/noticias/comunicados-de-prensa/2018/oropharyngeal-hpv-cisplatin</t>
   </si>
   <si>
     <t>annual-report-nation-2018</t>
+  </si>
+  <si>
+    <t>news-events/cancer-currents-blog/2019/pancreatic-cancer-targeting-kras-indirectly</t>
+  </si>
+  <si>
+    <t>Blog Post</t>
   </si>
 </sst>
 </file>
@@ -125,9 +119,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -444,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,102 +449,91 @@
     <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
